--- a/Plots/Import graph.xlsx
+++ b/Plots/Import graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Export, Import\2020\10. Jan-Oct\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Export, Import\2021\4. Jan-April\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D1AAE-FBBB-4040-A236-D8C500D60385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63E51D-7C2E-43A6-9DF8-78A9CA027205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Աճ</t>
   </si>
@@ -53,64 +53,40 @@
     <t>Ալյումին չմշակված</t>
   </si>
   <si>
-    <t xml:space="preserve">Նավթ և նավթամթերք </t>
-  </si>
-  <si>
-    <t>Ավտոմեքենա բեռնատար</t>
-  </si>
-  <si>
-    <t>Ավտոմեքենա մարդատար</t>
-  </si>
-  <si>
     <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
   </si>
   <si>
-    <t>Տրակտոր</t>
-  </si>
-  <si>
-    <t>Ավտոմեքենայի մասեր</t>
+    <t>Սիգարետ և սիգար</t>
+  </si>
+  <si>
+    <t>Շոկոլադ</t>
+  </si>
+  <si>
+    <t>Նավթ և նավթամթերք</t>
+  </si>
+  <si>
+    <t>Հեռախոս. և հեռագրային ապարատ, մասեր</t>
+  </si>
+  <si>
+    <t>Շիշ և այլ տարա, մասեր</t>
+  </si>
+  <si>
+    <t>Սարք պինդ հանքանյութի վերամշակման</t>
+  </si>
+  <si>
+    <t>Օդային և ոչ օդային պոմպ, մասեր</t>
   </si>
   <si>
     <t>Ցորեն</t>
   </si>
   <si>
-    <t xml:space="preserve">Շոկոլադ </t>
-  </si>
-  <si>
     <t>Սուրճ</t>
   </si>
   <si>
-    <t>Ռետինե նոր անվադող</t>
-  </si>
-  <si>
-    <t>Դեղամիջոց, բաղկացած առանձին նյութերից</t>
-  </si>
-  <si>
-    <t>Սիգարետ և սիգար</t>
-  </si>
-  <si>
-    <t>Հարթ գլանվածք երկաթից, ածխածնային պողպատից &gt;600մմ (երեսպատված)</t>
-  </si>
-  <si>
-    <t>Կենդանիների կեր</t>
-  </si>
-  <si>
-    <t>Հանքային կամ քիմիական ազոտի պարարտանյութ</t>
-  </si>
-  <si>
-    <t>Պոլիէթիլեն</t>
+    <t>Ցիտրուսային պտուղներ</t>
   </si>
   <si>
     <t>Բանան</t>
-  </si>
-  <si>
-    <t>Կոնյակ, ռոմ, ջին, օղի, լիկյոր</t>
-  </si>
-  <si>
-    <t>Ցիտրուսային պտուղներ</t>
-  </si>
-  <si>
-    <t>Խաղողի, ծառի, թփի շիվ եւ սածիլ</t>
   </si>
 </sst>
 </file>
@@ -143,11 +119,22 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -166,14 +153,344 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -610,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +939,7 @@
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2020</v>
       </c>
@@ -630,269 +947,233 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>357</v>
+        <v>176.41741252508308</v>
       </c>
       <c r="C2" s="3">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-2.1614010850263412</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>75.545694580153778</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.3075536227344458</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35.840420775680052</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.2481557649858033</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25.696474311616139</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-6.0886494213479736</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20.837559615448779</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.2048184782420961</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>210.3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-17.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>97.4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-58.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>75</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-43.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="4">
+        <v>20.163279838705837</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.2914729757885297</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>62.8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>47.9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>16.306723736076226</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-12.855471736175559</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B9" s="4">
-        <v>46.4</v>
+        <v>12.992960062534856</v>
       </c>
       <c r="C9" s="3">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.3356473668611191</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>33.799999999999997</v>
+        <v>10.821027916664683</v>
       </c>
       <c r="C10" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.3057387586687952</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.671962555349545</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-8.8948875495264126</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.7646378745775806</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.9731056523438779</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.3227370437982309</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-3.3288658534646611</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7.2898559124512055</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-3.9158204083142323</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
-        <v>31.9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="4">
+        <v>7.0560255096447628</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-0.4183820703554435</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.6302682039818315</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-1.1878103444935917</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-17.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B17" s="4">
-        <v>21.2</v>
+        <v>6.2081794826575409</v>
       </c>
       <c r="C17" s="3">
-        <v>-65.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-9.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>-9.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-9.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-8</v>
-      </c>
+        <v>0.93079900508446389</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C13" xr:uid="{D24330C6-DED2-41D2-AD86-DBF2F3B9FDEB}">
@@ -900,25 +1181,85 @@
       <sortCondition descending="1" ref="B1:B13"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="5"/>
-    <cfRule type="top10" dxfId="6" priority="4" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="5" priority="5" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
-    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="2" priority="6" rank="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="1" priority="7" rank="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="0" priority="8" rank="3"/>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="top10" dxfId="27" priority="26" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="top10" dxfId="26" priority="27" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="top10" dxfId="25" priority="28" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B23">
+    <cfRule type="top10" dxfId="24" priority="23" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B23">
+    <cfRule type="top10" dxfId="23" priority="24" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B23">
+    <cfRule type="top10" dxfId="22" priority="25" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="top10" dxfId="21" priority="16" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="top10" dxfId="20" priority="17" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="top10" dxfId="19" priority="18" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B8">
+    <cfRule type="top10" dxfId="18" priority="9" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C8">
+    <cfRule type="top10" dxfId="17" priority="10" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="16" priority="11" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="12" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B8">
+    <cfRule type="top10" dxfId="14" priority="13" rank="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B8">
+    <cfRule type="top10" dxfId="13" priority="14" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B8">
+    <cfRule type="top10" dxfId="12" priority="15" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="top10" dxfId="11" priority="8" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="top10" dxfId="10" priority="7" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="top10" dxfId="8" priority="5" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="top10" dxfId="7" priority="1" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="top10" dxfId="5" priority="3" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="top10" dxfId="4" priority="4" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="top10" dxfId="3" priority="19" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="top10" dxfId="2" priority="20" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="top10" dxfId="1" priority="21" rank="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="top10" dxfId="0" priority="22" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
